--- a/src/main/webapp/file/excel/新建 Microsoft Office Excel 工作表.xlsx
+++ b/src/main/webapp/file/excel/新建 Microsoft Office Excel 工作表.xlsx
@@ -354,106 +354,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/file/excel/新建 Microsoft Office Excel 工作表.xlsx
+++ b/src/main/webapp/file/excel/新建 Microsoft Office Excel 工作表.xlsx
@@ -15,9 +15,224 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>商品编码</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>销售数量</t>
+  </si>
+  <si>
+    <t>销售金额</t>
+  </si>
+  <si>
+    <t>退货数量</t>
+  </si>
+  <si>
+    <t>退货金额</t>
+  </si>
+  <si>
+    <t>赠送数量</t>
+  </si>
+  <si>
+    <t>赠送金额</t>
+  </si>
+  <si>
+    <t>数量小计</t>
+  </si>
+  <si>
+    <t>金额小计</t>
+  </si>
+  <si>
+    <t>参考进价</t>
+  </si>
+  <si>
+    <t>进价金额</t>
+  </si>
+  <si>
+    <t>参考利润</t>
+  </si>
+  <si>
+    <t>当前主供应商</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>冰淇淋</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>本地供应商</t>
+  </si>
+  <si>
+    <t>缺省品牌</t>
+  </si>
+  <si>
+    <t>爆米花</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>000044</t>
+  </si>
+  <si>
+    <t>手工冰糕</t>
+  </si>
+  <si>
+    <t>000007</t>
+  </si>
+  <si>
+    <t>000008</t>
+  </si>
+  <si>
+    <t>000009</t>
+  </si>
+  <si>
+    <t>000014</t>
+  </si>
+  <si>
+    <t>000020</t>
+  </si>
+  <si>
+    <t>000022</t>
+  </si>
+  <si>
+    <t>000023</t>
+  </si>
+  <si>
+    <t>000030</t>
+  </si>
+  <si>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>000015</t>
+  </si>
+  <si>
+    <t>000018</t>
+  </si>
+  <si>
+    <t>000021</t>
+  </si>
+  <si>
+    <t>000024</t>
+  </si>
+  <si>
+    <t>000025</t>
+  </si>
+  <si>
+    <t>000031</t>
+  </si>
+  <si>
+    <t>000036</t>
+  </si>
+  <si>
+    <t>000037</t>
+  </si>
+  <si>
+    <t>000039</t>
+  </si>
+  <si>
+    <t>000040</t>
+  </si>
+  <si>
+    <t>000041</t>
+  </si>
+  <si>
+    <t>000043</t>
+  </si>
+  <si>
+    <t>000045</t>
+  </si>
+  <si>
+    <t>000050</t>
+  </si>
+  <si>
+    <t>000051</t>
+  </si>
+  <si>
+    <t>慕斯</t>
+  </si>
+  <si>
+    <t>000027</t>
+  </si>
+  <si>
+    <t>000028</t>
+  </si>
+  <si>
+    <t>000029</t>
+  </si>
+  <si>
+    <t>花淇淋</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t>000005</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>000012</t>
+  </si>
+  <si>
+    <t>000013</t>
+  </si>
+  <si>
+    <t>000016</t>
+  </si>
+  <si>
+    <t>000017</t>
+  </si>
+  <si>
+    <t>000019</t>
+  </si>
+  <si>
+    <t>000026</t>
+  </si>
+  <si>
+    <t>000034</t>
+  </si>
+  <si>
+    <t>000035</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,###,###,##0.00"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,19 +248,131 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="63"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="60"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="58"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -56,9 +383,81 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,28 +753,2057 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="B1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
+    <row r="1" spans="2:18">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8">
+        <v>341</v>
+      </c>
+      <c r="G2" s="8">
+        <v>669.7</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8">
+        <v>3</v>
+      </c>
+      <c r="K2" s="8">
+        <v>6</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8">
+        <v>667.7</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0</v>
+      </c>
+      <c r="P2" s="9">
+        <v>667.7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13">
+        <v>4</v>
+      </c>
+      <c r="G3" s="13">
+        <v>20</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="13">
+        <v>20</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+      <c r="P3" s="13">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17">
+        <v>16</v>
+      </c>
+      <c r="G4" s="17">
+        <v>77</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="17">
+        <v>77</v>
+      </c>
+      <c r="N4" s="17">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17">
+        <v>0</v>
+      </c>
+      <c r="P4" s="17">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13">
+        <v>85</v>
+      </c>
+      <c r="G5" s="13">
+        <v>340.2</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>1</v>
+      </c>
+      <c r="K5" s="13">
+        <v>4</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="13">
+        <v>332.2</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>332.2</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17">
+        <v>56</v>
+      </c>
+      <c r="G6" s="17">
+        <v>220.2</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="17">
+        <v>220.2</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <v>220.2</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13">
+        <v>3</v>
+      </c>
+      <c r="G7" s="13">
+        <v>18</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="13">
+        <v>18</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17">
+        <v>14</v>
+      </c>
+      <c r="G8" s="17">
+        <v>56</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="17">
+        <v>56</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0</v>
+      </c>
+      <c r="O8" s="17">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13">
+        <v>5</v>
+      </c>
+      <c r="G9" s="13">
+        <v>10</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="13">
+        <v>10</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17">
+        <v>19</v>
+      </c>
+      <c r="G10" s="17">
+        <v>92</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="17">
+        <v>92</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13">
+        <v>14</v>
+      </c>
+      <c r="G11" s="13">
+        <v>67</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="13">
+        <v>67</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17">
+        <v>10</v>
+      </c>
+      <c r="G12" s="17">
+        <v>40</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="17">
+        <v>40</v>
+      </c>
+      <c r="N12" s="17">
+        <v>0</v>
+      </c>
+      <c r="O12" s="17">
+        <v>0</v>
+      </c>
+      <c r="P12" s="17">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13">
+        <v>43</v>
+      </c>
+      <c r="G13" s="13">
+        <v>210</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="13">
+        <v>210</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <v>210</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17">
+        <v>8</v>
+      </c>
+      <c r="G14" s="17">
+        <v>64</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="17">
+        <v>64</v>
+      </c>
+      <c r="N14" s="17">
+        <v>0</v>
+      </c>
+      <c r="O14" s="17">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13">
+        <v>29</v>
+      </c>
+      <c r="G15" s="13">
+        <v>187.2</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="13">
+        <v>187.2</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>187.2</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17">
+        <v>22</v>
+      </c>
+      <c r="G16" s="17">
+        <v>129.6</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0</v>
+      </c>
+      <c r="K16" s="17">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="17">
+        <v>129.6</v>
+      </c>
+      <c r="N16" s="17">
+        <v>0</v>
+      </c>
+      <c r="O16" s="17">
+        <v>0</v>
+      </c>
+      <c r="P16" s="17">
+        <v>129.6</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13">
+        <v>80</v>
+      </c>
+      <c r="G17" s="13">
+        <v>313.2</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="13">
+        <v>313.2</v>
+      </c>
+      <c r="N17" s="13">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0</v>
+      </c>
+      <c r="P17" s="13">
+        <v>313.2</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17">
+        <v>15</v>
+      </c>
+      <c r="G18" s="17">
+        <v>88.8</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="17">
+        <v>88.8</v>
+      </c>
+      <c r="N18" s="17">
+        <v>0</v>
+      </c>
+      <c r="O18" s="17">
+        <v>0</v>
+      </c>
+      <c r="P18" s="17">
+        <v>88.8</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13">
+        <v>6</v>
+      </c>
+      <c r="G19" s="13">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="13">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="N19" s="13">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="4">
+        <v>19</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17">
+        <v>5</v>
+      </c>
+      <c r="G20" s="17">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="17">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="N20" s="17">
+        <v>0</v>
+      </c>
+      <c r="O20" s="17">
+        <v>0</v>
+      </c>
+      <c r="P20" s="17">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="4">
+        <v>20</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
+        <v>8</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="13">
+        <v>8</v>
+      </c>
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="4">
+        <v>21</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17">
+        <v>7</v>
+      </c>
+      <c r="G22" s="17">
+        <v>44.8</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="17">
+        <v>44.8</v>
+      </c>
+      <c r="N22" s="17">
+        <v>0</v>
+      </c>
+      <c r="O22" s="17">
+        <v>0</v>
+      </c>
+      <c r="P22" s="17">
+        <v>44.8</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="4">
+        <v>22</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13">
+        <v>3</v>
+      </c>
+      <c r="G23" s="13">
+        <v>21</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="13">
+        <v>21</v>
+      </c>
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="4">
+        <v>23</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17">
+        <v>2</v>
+      </c>
+      <c r="G24" s="17">
+        <v>14</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="17">
+        <v>14</v>
+      </c>
+      <c r="N24" s="17">
+        <v>0</v>
+      </c>
+      <c r="O24" s="17">
+        <v>0</v>
+      </c>
+      <c r="P24" s="17">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="4">
+        <v>24</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13">
+        <v>7</v>
+      </c>
+      <c r="G25" s="13">
+        <v>68</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="13">
+        <v>68</v>
+      </c>
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="4">
+        <v>25</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17">
+        <v>1</v>
+      </c>
+      <c r="G26" s="17">
+        <v>5</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="17">
+        <v>5</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+      <c r="O26" s="17">
+        <v>0</v>
+      </c>
+      <c r="P26" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="4">
+        <v>26</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13">
+        <v>3</v>
+      </c>
+      <c r="G27" s="13">
+        <v>18</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="13">
+        <v>18</v>
+      </c>
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="4">
+        <v>27</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17">
+        <v>11</v>
+      </c>
+      <c r="G28" s="17">
+        <v>50</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="17">
+        <v>50</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+      <c r="O28" s="17">
+        <v>0</v>
+      </c>
+      <c r="P28" s="17">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="4">
+        <v>28</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13">
+        <v>22</v>
+      </c>
+      <c r="G29" s="13">
+        <v>107</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="13">
+        <v>107</v>
+      </c>
+      <c r="N29" s="13">
+        <v>0</v>
+      </c>
+      <c r="O29" s="13">
+        <v>0</v>
+      </c>
+      <c r="P29" s="13">
+        <v>107</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="4">
+        <v>29</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17">
+        <v>17</v>
+      </c>
+      <c r="G30" s="17">
+        <v>84</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
+        <v>0</v>
+      </c>
+      <c r="K30" s="17">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="17">
+        <v>84</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+      <c r="O30" s="17">
+        <v>0</v>
+      </c>
+      <c r="P30" s="17">
+        <v>84</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="4">
+        <v>30</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13">
+        <v>57</v>
+      </c>
+      <c r="G31" s="13">
+        <v>444.8</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>5</v>
+      </c>
+      <c r="K31" s="13">
+        <v>40</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="13">
+        <v>444.8</v>
+      </c>
+      <c r="N31" s="13">
+        <v>0</v>
+      </c>
+      <c r="O31" s="13">
+        <v>0</v>
+      </c>
+      <c r="P31" s="13">
+        <v>444.8</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="4">
+        <v>31</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17">
+        <v>84</v>
+      </c>
+      <c r="G32" s="17">
+        <v>332.6</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17">
+        <v>0</v>
+      </c>
+      <c r="J32" s="17">
+        <v>0</v>
+      </c>
+      <c r="K32" s="17">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="17">
+        <v>332.6</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+      <c r="O32" s="17">
+        <v>0</v>
+      </c>
+      <c r="P32" s="17">
+        <v>332.6</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="4">
+        <v>32</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13">
+        <v>35</v>
+      </c>
+      <c r="G33" s="13">
+        <v>140</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
+        <v>0</v>
+      </c>
+      <c r="K33" s="13">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8"/>
+      <c r="M33" s="13">
+        <v>140</v>
+      </c>
+      <c r="N33" s="13">
+        <v>0</v>
+      </c>
+      <c r="O33" s="13">
+        <v>0</v>
+      </c>
+      <c r="P33" s="13">
+        <v>140</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34" s="4">
+        <v>33</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17">
+        <v>47</v>
+      </c>
+      <c r="G34" s="17">
+        <v>188</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17">
+        <v>0</v>
+      </c>
+      <c r="J34" s="17">
+        <v>0</v>
+      </c>
+      <c r="K34" s="17">
+        <v>0</v>
+      </c>
+      <c r="L34" s="8"/>
+      <c r="M34" s="17">
+        <v>188</v>
+      </c>
+      <c r="N34" s="17">
+        <v>0</v>
+      </c>
+      <c r="O34" s="17">
+        <v>0</v>
+      </c>
+      <c r="P34" s="17">
+        <v>188</v>
+      </c>
+      <c r="Q34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35" s="4">
+        <v>34</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13">
+        <v>80</v>
+      </c>
+      <c r="G35" s="13">
+        <v>451.4</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
+      <c r="K35" s="13">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8"/>
+      <c r="M35" s="13">
+        <v>451.4</v>
+      </c>
+      <c r="N35" s="13">
+        <v>0</v>
+      </c>
+      <c r="O35" s="13">
+        <v>0</v>
+      </c>
+      <c r="P35" s="13">
+        <v>451.4</v>
+      </c>
+      <c r="Q35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" s="4">
+        <v>35</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17">
+        <v>19</v>
+      </c>
+      <c r="G36" s="17">
+        <v>219.6</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17">
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
+        <v>0</v>
+      </c>
+      <c r="K36" s="17">
+        <v>0</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="17">
+        <v>219.6</v>
+      </c>
+      <c r="N36" s="17">
+        <v>0</v>
+      </c>
+      <c r="O36" s="17">
+        <v>0</v>
+      </c>
+      <c r="P36" s="17">
+        <v>219.6</v>
+      </c>
+      <c r="Q36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="B37" s="4">
+        <v>36</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13">
+        <v>4</v>
+      </c>
+      <c r="G37" s="13">
+        <v>16</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13">
+        <v>0</v>
+      </c>
+      <c r="J37" s="13">
+        <v>0</v>
+      </c>
+      <c r="K37" s="13">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="13">
+        <v>16</v>
+      </c>
+      <c r="N37" s="13">
+        <v>0</v>
+      </c>
+      <c r="O37" s="13">
+        <v>0</v>
+      </c>
+      <c r="P37" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="B38" s="4">
+        <v>37</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17">
+        <v>13</v>
+      </c>
+      <c r="G38" s="17">
+        <v>40.4</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17">
+        <v>0</v>
+      </c>
+      <c r="J38" s="17">
+        <v>0</v>
+      </c>
+      <c r="K38" s="17">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="17">
+        <v>40.4</v>
+      </c>
+      <c r="N38" s="17">
+        <v>0</v>
+      </c>
+      <c r="O38" s="17">
+        <v>0</v>
+      </c>
+      <c r="P38" s="17">
+        <v>40.4</v>
+      </c>
+      <c r="Q38" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R38" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18">
+      <c r="B39" s="4">
+        <v>38</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13">
+        <v>4</v>
+      </c>
+      <c r="G39" s="13">
+        <v>56</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13">
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
+        <v>0</v>
+      </c>
+      <c r="K39" s="13">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="13">
+        <v>56</v>
+      </c>
+      <c r="N39" s="13">
+        <v>0</v>
+      </c>
+      <c r="O39" s="13">
+        <v>0</v>
+      </c>
+      <c r="P39" s="13">
+        <v>56</v>
+      </c>
+      <c r="Q39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="B40" s="4">
+        <v>39</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17">
+        <v>3</v>
+      </c>
+      <c r="G40" s="17">
+        <v>28</v>
+      </c>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17">
+        <v>0</v>
+      </c>
+      <c r="J40" s="17">
+        <v>0</v>
+      </c>
+      <c r="K40" s="17">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8"/>
+      <c r="M40" s="17">
+        <v>28</v>
+      </c>
+      <c r="N40" s="17">
+        <v>0</v>
+      </c>
+      <c r="O40" s="17">
+        <v>0</v>
+      </c>
+      <c r="P40" s="17">
+        <v>28</v>
+      </c>
+      <c r="Q40" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R40" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="B41" s="4">
+        <v>40</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13">
+        <v>67</v>
+      </c>
+      <c r="G41" s="13">
+        <v>383.4</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13">
+        <v>0</v>
+      </c>
+      <c r="J41" s="13">
+        <v>0</v>
+      </c>
+      <c r="K41" s="13">
+        <v>0</v>
+      </c>
+      <c r="L41" s="8"/>
+      <c r="M41" s="13">
+        <v>383.4</v>
+      </c>
+      <c r="N41" s="13">
+        <v>0</v>
+      </c>
+      <c r="O41" s="13">
+        <v>0</v>
+      </c>
+      <c r="P41" s="13">
+        <v>383.4</v>
+      </c>
+      <c r="Q41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="B42" s="4">
+        <v>41</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17">
+        <v>38</v>
+      </c>
+      <c r="G42" s="17">
+        <v>185</v>
+      </c>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17">
+        <v>0</v>
+      </c>
+      <c r="J42" s="17">
+        <v>0</v>
+      </c>
+      <c r="K42" s="17">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8"/>
+      <c r="M42" s="17">
+        <v>185</v>
+      </c>
+      <c r="N42" s="17">
+        <v>0</v>
+      </c>
+      <c r="O42" s="17">
+        <v>0</v>
+      </c>
+      <c r="P42" s="17">
+        <v>185</v>
+      </c>
+      <c r="Q42" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R42" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18">
+      <c r="B43" s="4">
+        <v>42</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13">
+        <v>18</v>
+      </c>
+      <c r="G43" s="13">
+        <v>137.6</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13">
+        <v>0</v>
+      </c>
+      <c r="J43" s="13">
+        <v>0</v>
+      </c>
+      <c r="K43" s="13">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8"/>
+      <c r="M43" s="13">
+        <v>137.6</v>
+      </c>
+      <c r="N43" s="13">
+        <v>0</v>
+      </c>
+      <c r="O43" s="13">
+        <v>0</v>
+      </c>
+      <c r="P43" s="13">
+        <v>137.6</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R43" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="B44" s="4">
+        <v>43</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17">
+        <v>5</v>
+      </c>
+      <c r="G44" s="17">
+        <v>98</v>
+      </c>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17">
+        <v>0</v>
+      </c>
+      <c r="J44" s="17">
+        <v>0</v>
+      </c>
+      <c r="K44" s="17">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8"/>
+      <c r="M44" s="17">
+        <v>98</v>
+      </c>
+      <c r="N44" s="17">
+        <v>0</v>
+      </c>
+      <c r="O44" s="17">
+        <v>0</v>
+      </c>
+      <c r="P44" s="17">
+        <v>98</v>
+      </c>
+      <c r="Q44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R44" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="24">
+        <v>1323</v>
+      </c>
+      <c r="G45" s="24">
+        <v>5821.1</v>
+      </c>
+      <c r="H45" s="24">
+        <v>3</v>
+      </c>
+      <c r="I45" s="24">
+        <v>10</v>
+      </c>
+      <c r="J45" s="24">
+        <v>9</v>
+      </c>
+      <c r="K45" s="24">
+        <v>50</v>
+      </c>
+      <c r="L45" s="24">
+        <v>1329</v>
+      </c>
+      <c r="M45" s="24">
+        <v>5811.1</v>
+      </c>
+      <c r="N45" s="22"/>
+      <c r="O45" s="24">
+        <v>0</v>
+      </c>
+      <c r="P45" s="24">
+        <v>5811.1</v>
+      </c>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
